--- a/data/output/bases-separadas/-6.xlsx
+++ b/data/output/bases-separadas/-6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>564200000177</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>04404774000139</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>10857535000137</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03433557000104</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>8250513000162</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01179251000148</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>9435854000175</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08078904000141</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>11865249000186</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03618263000157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1136636000128</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06112736000138</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>11368900000102</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05864744000259</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>38951406000122</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02438236000130</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>16850663000135</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07938544000148</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10266143000101</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06315338002324</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11031407000100</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09575263000101</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>17283336000101</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07063538000194</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>9011627000112</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09456379000113</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>12152065000131</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>09417321000160</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15314717000185</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05880105000104</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>40639247000177</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07161815000100</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>15422901000149</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0215234000156</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>71091193000181</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01818249000171</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>66932286000151</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06421259000192</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>7887324000132</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06222037000140</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>8179670000129</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07346264000140</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>10764533000101</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07182178000140</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>13676913000174</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07296180000140</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>4114101000144</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01165459000108</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>909327000261</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04882130000156</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>389481002112</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03120545000120</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>74175951000138</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02753327000402</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>11093660000180</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>07774765000128</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>73822058000194</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06002259000158</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>10584602000197</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07976147001302</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>49357221000100</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04391197000279</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>93641710000181</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02837785000187</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>56355050000146</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09265212000175</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>4368089000102</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07646538000117</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>65484453000186</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04792633000130</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1676336000131</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04284315000169</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>868626000114</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04210668000114</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>12770151000108</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>06911404000113</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>10975214000137</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05367573000171</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>12965774000136</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>07303836000104</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>2491558000142</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>09467864000192</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>4377451000101</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08434156000192</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>7589862000140</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>06315338002405</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>9540688000177</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06315338015060</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>4404774000139</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02853842000111</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>57436495000113</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>09034894000105</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>3433557000104</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>06155743000117</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>12420164000157</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08628438000120</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1179251000148</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>07170321000183</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>14336965000164</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08205277000162</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>56714660000199</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>02491558000738</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>17642450000180</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08428051000120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>8078904000141</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>02634097000110</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>3618263000157</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08591679000142</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>6112736000138</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>08313271000370</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>11078937000104</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>08658685000170</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>12063607000108</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>05351022000110</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>5864744000259</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>05820781000184</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>2438236000130</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01338388000106</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>7938544000148</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>07165071000193</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>60723061008606</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01468484000160</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>15465017000191</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>03328850000101</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>10719885000137</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>08775814000100</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>6315338002324</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>019345686000180</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>11372981000114</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05031306000129</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>9575263000101</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>02617806000159</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>7063538000194</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>02895964000170</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>17556780000153</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>03731011000130</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>10215988000836</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05301589000181</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>9456379000113</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>03108734000187</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>16701716000156</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>02753327000160</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>15045348000172</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08865899000117</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>18046006000165</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>02358783000105</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>13136547000160</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04935819000100</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>9417321000160</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0912481000101</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>5880105000104</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>07281568000177</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>13792978000185</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>06290968000186</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>10328469000108</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04873954000160</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>7161815000100</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>09100631000157</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>79747234000157</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06029385000104</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>19376020000190</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>09500028000162</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>215234000156</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>05613696000145</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>19158936000173</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>08016893000175</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1818249000171</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>02886295000170</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>85201143000114</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>05202262000152</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>6421259000192</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>08153200000196</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>71680193000117</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>06179505000141</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>6222037000140</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>03516450000120</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>7346264000140</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>07005206000153</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>7182178000140</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>08323251000119</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>7296180000140</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>03644204000153</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>1165459000108</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01656017000164</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>4882130000156</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04534601000135</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>18678139000154</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04567519000107</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>78386885000104</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>07444594000179</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>11381995000102</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>06334560000169</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>3120545000120</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>03986615000127</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>69896967000108</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04259049000114</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>14335542000120</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>08475922000167</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>17514710000132</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0536772003249</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
